--- a/data/quiz230925.xlsx
+++ b/data/quiz230925.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8604AD-227A-6D47-BE84-206303FF7DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405580DA-44E0-3541-993A-D6162B412568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="500" windowWidth="44800" windowHeight="22940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35020" yWindow="500" windowWidth="33780" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="309">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -533,6 +533,422 @@
   </si>
   <si>
     <t>조성진</t>
+  </si>
+  <si>
+    <t>wlsgml9808@naver.com</t>
+  </si>
+  <si>
+    <t>이진희</t>
+  </si>
+  <si>
+    <t>se0jin1112@naver.com</t>
+  </si>
+  <si>
+    <t>김서진</t>
+  </si>
+  <si>
+    <t>useojin00@gmail.com</t>
+  </si>
+  <si>
+    <t>유서진</t>
+  </si>
+  <si>
+    <t>hsm3932@naver.com</t>
+  </si>
+  <si>
+    <t>일본학과</t>
+  </si>
+  <si>
+    <t>허선민</t>
+  </si>
+  <si>
+    <t>dnjsgudwns0527@naver.com</t>
+  </si>
+  <si>
+    <t>원형준</t>
+  </si>
+  <si>
+    <t>jdh874788@gmail.com</t>
+  </si>
+  <si>
+    <t>주다현</t>
+  </si>
+  <si>
+    <t>chh040817@naver.com</t>
+  </si>
+  <si>
+    <t>차현화</t>
+  </si>
+  <si>
+    <t>yunbi0405@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠it</t>
+  </si>
+  <si>
+    <t>최윤비</t>
+  </si>
+  <si>
+    <t>bae001909@naver.com</t>
+  </si>
+  <si>
+    <t>배윤진</t>
+  </si>
+  <si>
+    <t>sungmin6674@gmail.com</t>
+  </si>
+  <si>
+    <t>금융재무학과</t>
+  </si>
+  <si>
+    <t>방성민</t>
+  </si>
+  <si>
+    <t>birr040511@naver.com</t>
+  </si>
+  <si>
+    <t>오준서</t>
+  </si>
+  <si>
+    <t>machippo99@gmail.com</t>
+  </si>
+  <si>
+    <t>제동재</t>
+  </si>
+  <si>
+    <t>rbgjs65@naver.com</t>
+  </si>
+  <si>
+    <t>생명과학과</t>
+  </si>
+  <si>
+    <t>김규헌</t>
+  </si>
+  <si>
+    <t>y_k1017@naver.com</t>
+  </si>
+  <si>
+    <t>청각학과</t>
+  </si>
+  <si>
+    <t>이윤경</t>
+  </si>
+  <si>
+    <t>jinkyo040119@naver.com</t>
+  </si>
+  <si>
+    <t>김진교</t>
+  </si>
+  <si>
+    <t>codmswldhs@naver.com</t>
+  </si>
+  <si>
+    <t>언어병리학과</t>
+  </si>
+  <si>
+    <t>김채은</t>
+  </si>
+  <si>
+    <t>bee9588@naver.com</t>
+  </si>
+  <si>
+    <t>민서윤</t>
+  </si>
+  <si>
+    <t>lia129@naver.com</t>
+  </si>
+  <si>
+    <t>노효은</t>
+  </si>
+  <si>
+    <t>su12ki24@gmail.com</t>
+  </si>
+  <si>
+    <t>박지숙</t>
+  </si>
+  <si>
+    <t>hjp0107@naver.com</t>
+  </si>
+  <si>
+    <t>컨텐츠it학과</t>
+  </si>
+  <si>
+    <t>홍진표</t>
+  </si>
+  <si>
+    <t>gustn838@gmail.com</t>
+  </si>
+  <si>
+    <t>박현수</t>
+  </si>
+  <si>
+    <t>sejung2854@gmail.com</t>
+  </si>
+  <si>
+    <t>김세중</t>
+  </si>
+  <si>
+    <t>h20206619@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>신현경</t>
+  </si>
+  <si>
+    <t>ghkwls336@naver.com</t>
+  </si>
+  <si>
+    <t>장다온</t>
+  </si>
+  <si>
+    <t>minge0407@naver.com</t>
+  </si>
+  <si>
+    <t>이민지</t>
+  </si>
+  <si>
+    <t>junz0young@gmail.com</t>
+  </si>
+  <si>
+    <t>배준영</t>
+  </si>
+  <si>
+    <t>eunjae7113@naver.com</t>
+  </si>
+  <si>
+    <t>전은재</t>
+  </si>
+  <si>
+    <t>skdud5438@naver.com</t>
+  </si>
+  <si>
+    <t>곽나영</t>
+  </si>
+  <si>
+    <t>5614bok@naver.com</t>
+  </si>
+  <si>
+    <t>안세진</t>
+  </si>
+  <si>
+    <t>phanbe1@naver.com</t>
+  </si>
+  <si>
+    <t>박한비</t>
+  </si>
+  <si>
+    <t>leaf0113@naver.com</t>
+  </si>
+  <si>
+    <t>김남은</t>
+  </si>
+  <si>
+    <t>dnjstjsdn02@naver.com</t>
+  </si>
+  <si>
+    <t>원선우</t>
+  </si>
+  <si>
+    <t>jennybee0403@naver.com</t>
+  </si>
+  <si>
+    <t>백재현</t>
+  </si>
+  <si>
+    <t>jeongsuyeon749@gmail.com</t>
+  </si>
+  <si>
+    <t>정수연</t>
+  </si>
+  <si>
+    <t>cici030728@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학과</t>
+  </si>
+  <si>
+    <t>박태양</t>
+  </si>
+  <si>
+    <t>경제학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20232327@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사회복지학부 </t>
+  </si>
+  <si>
+    <t>박소희</t>
+  </si>
+  <si>
+    <t>seoarin09@gmail.com</t>
+  </si>
+  <si>
+    <t>서아린</t>
+  </si>
+  <si>
+    <t>amyson0622@naver.com</t>
+  </si>
+  <si>
+    <t>손진아</t>
+  </si>
+  <si>
+    <t>kimcciman1@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합학과</t>
+  </si>
+  <si>
+    <t>김원빈</t>
+  </si>
+  <si>
+    <t>moyapple2431@naver.com</t>
+  </si>
+  <si>
+    <t>조윤서</t>
+  </si>
+  <si>
+    <t>20236706@hallym.com</t>
+  </si>
+  <si>
+    <t>인공지능융합</t>
+  </si>
+  <si>
+    <t>김가빈</t>
+  </si>
+  <si>
+    <t>popoq2004@naver.com</t>
+  </si>
+  <si>
+    <t>박신비</t>
+  </si>
+  <si>
+    <t>haohao873@naver.com</t>
+  </si>
+  <si>
+    <t>안지연</t>
+  </si>
+  <si>
+    <t>onjng0918@gmail.com</t>
+  </si>
+  <si>
+    <t>오윤정</t>
+  </si>
+  <si>
+    <t>ga89193234@gmail.com</t>
+  </si>
+  <si>
+    <t>김경아</t>
+  </si>
+  <si>
+    <t>dmskr0408@gmail.com</t>
+  </si>
+  <si>
+    <t>오은탁</t>
+  </si>
+  <si>
+    <t>soc07045@naver.com</t>
+  </si>
+  <si>
+    <t>이윤교</t>
+  </si>
+  <si>
+    <t>dllight2001@gmail.com</t>
+  </si>
+  <si>
+    <t>김들빛</t>
+  </si>
+  <si>
+    <t>dlrnjsfh1@naver.com</t>
+  </si>
+  <si>
+    <t>스마트iot</t>
+  </si>
+  <si>
+    <t>이권로</t>
+  </si>
+  <si>
+    <t>nihao1375@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠전공</t>
+  </si>
+  <si>
+    <t>황지훈</t>
+  </si>
+  <si>
+    <t>hmuc1smoker@gmail.com</t>
+  </si>
+  <si>
+    <t>스마트IOT</t>
+  </si>
+  <si>
+    <t>서정원</t>
+  </si>
+  <si>
+    <t>lgh4787@gmail.com</t>
+  </si>
+  <si>
+    <t>이가현</t>
+  </si>
+  <si>
+    <t>happle0313@naver.com</t>
+  </si>
+  <si>
+    <t>김희경</t>
+  </si>
+  <si>
+    <t>seonyeong0429@gmail.com</t>
+  </si>
+  <si>
+    <t>노선영</t>
+  </si>
+  <si>
+    <t>sally4417776@naver.com</t>
+  </si>
+  <si>
+    <t>안세연</t>
+  </si>
+  <si>
+    <t>junesumin12@naver.com</t>
+  </si>
+  <si>
+    <t>전수민</t>
+  </si>
+  <si>
+    <t>xpo7777@naver.com</t>
+  </si>
+  <si>
+    <t>박찬주</t>
+  </si>
+  <si>
+    <t>gksthgus3322@naver.com</t>
+  </si>
+  <si>
+    <t>간호</t>
+  </si>
+  <si>
+    <t>한소현</t>
+  </si>
+  <si>
+    <t>ucastlemoon@naver.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>신성문</t>
+  </si>
+  <si>
+    <t>wtk0116@naver.com</t>
+  </si>
+  <si>
+    <t>원태경</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어 전공</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -807,11 +1223,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
+      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2995,6 +3411,2466 @@
         <v>30</v>
       </c>
     </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2">
+        <v>45194.823789664355</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="1">
+        <v>20173728</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2">
+        <v>45194.825748171294</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="1">
+        <v>20233806</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2">
+        <v>45194.828906481482</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" s="1">
+        <v>20233942</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N56" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2">
+        <v>45194.83437138889</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D57" s="1">
+        <v>20221637</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M57" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2">
+        <v>45194.848503125002</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="1">
+        <v>20233941</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M58" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2">
+        <v>45194.848731388891</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="1">
+        <v>20233047</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="2">
+        <v>45194.852235520833</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D60" s="1">
+        <v>20233962</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="2">
+        <v>45194.866390081021</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D61" s="1">
+        <v>20195270</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="2">
+        <v>45194.872242152778</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62" s="1">
+        <v>20193712</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M62" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="2">
+        <v>45194.883580428243</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D63" s="1">
+        <v>20232963</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="2">
+        <v>45194.888099722222</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D64" s="1">
+        <v>20232832</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N64" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="2">
+        <v>45194.893278159725</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D65" s="1">
+        <v>20236164</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="2">
+        <v>45194.903747430551</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D66" s="1">
+        <v>20203501</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="2">
+        <v>45194.908076099542</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D67" s="1">
+        <v>20203946</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="2">
+        <v>45194.913357094905</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D68" s="1">
+        <v>20236609</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I68" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M68" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="2">
+        <v>45194.91766846065</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D69" s="1">
+        <v>20213925</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="2">
+        <v>45194.928018159721</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" s="1">
+        <v>20233925</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M70" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="2">
+        <v>45194.930379178244</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D71" s="1">
+        <v>20232716</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I71" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L71" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M71" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="2">
+        <v>45194.93372966435</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D72" s="1">
+        <v>20232821</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K72" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M72" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="2">
+        <v>45194.94167670139</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D73" s="1">
+        <v>20205277</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I73" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L73" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M73" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="2">
+        <v>45194.94699582176</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D74" s="1">
+        <v>20212417</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K74" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N74" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="2">
+        <v>45194.961424548615</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="1">
+        <v>20192310</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K75" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L75" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="2">
+        <v>45194.962035393517</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" s="1">
+        <v>20206619</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K76" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N76" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="2">
+        <v>45194.963677175925</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D77" s="1">
+        <v>20236287</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K77" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="2">
+        <v>45194.967109780089</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" s="1">
+        <v>20212126</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="2">
+        <v>45194.96810982639</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D79" s="1">
+        <v>20231044</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I79" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K79" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L79" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M79" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="2">
+        <v>45194.973371874999</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D80" s="1">
+        <v>20236772</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I80" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K80" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N80" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="2">
+        <v>45194.98218107639</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D81" s="1">
+        <v>20232803</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I81" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="2">
+        <v>45194.983699236109</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D82" s="1">
+        <v>20233525</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I82" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N82" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="2">
+        <v>45194.98848064815</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" s="1">
+        <v>20236244</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="2">
+        <v>45195.032710833329</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D84" s="1">
+        <v>20231203</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I84" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K84" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L84" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M84" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="2">
+        <v>45195.036937199075</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" s="1">
+        <v>20225196</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I85" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="2">
+        <v>45195.057705069441</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D86" s="1">
+        <v>20236249</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K86" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L86" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N86" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="2">
+        <v>45195.070091909722</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D87" s="1">
+        <v>20236290</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I87" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="2">
+        <v>45195.104027337962</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D88" s="1">
+        <v>20235175</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K88" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L88" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N88" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="2">
+        <v>45195.379012094912</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D89" s="1">
+        <v>20232327</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K89" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L89" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M89" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="2">
+        <v>45195.468744004625</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D90" s="1">
+        <v>20202332</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I90" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K90" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L90" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M90" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="2">
+        <v>45195.470036469909</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D91" s="1">
+        <v>20223825</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K91" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L91" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M91" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="2">
+        <v>45195.484962581017</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D92" s="1">
+        <v>20236715</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K92" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L92" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M92" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="2">
+        <v>45195.498150995365</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D93" s="1">
+        <v>20221729</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I93" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K93" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L93" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M93" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="2">
+        <v>45195.504743530095</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D94" s="1">
+        <v>20236706</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K94" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N94" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="2">
+        <v>45195.538670347218</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D95" s="1">
+        <v>20236239</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I95" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K95" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L95" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M95" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="2">
+        <v>45195.556719791668</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D96" s="1">
+        <v>20231525</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I96" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K96" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L96" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N96" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="2">
+        <v>45195.556861944446</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D97" s="1">
+        <v>20232338</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I97" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K97" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="2">
+        <v>45195.577933159722</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D98" s="1">
+        <v>20231007</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I98" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N98" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="2">
+        <v>45195.585789884259</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D99" s="1">
+        <v>20235208</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I99" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L99" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M99" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="2">
+        <v>45195.598923425925</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D100" s="1">
+        <v>20193828</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="2">
+        <v>45195.601677766201</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D101" s="1">
+        <v>20205129</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="2">
+        <v>45195.621905729167</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D102" s="1">
+        <v>20217148</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K102" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M102" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="2">
+        <v>45195.63179738426</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D103" s="1">
+        <v>20172586</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I103" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K103" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L103" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M103" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="2">
+        <v>45195.643217962963</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D104" s="1">
+        <v>20217146</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I104" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K104" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L104" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M104" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="2">
+        <v>45195.644116759257</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D105" s="1">
+        <v>20232999</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I105" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K105" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L105" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M105" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="2">
+        <v>45195.650339444444</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D106" s="1">
+        <v>20202945</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I106" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="2">
+        <v>45195.651612210648</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D107" s="1">
+        <v>20236235</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I107" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K107" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L107" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M107" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="2">
+        <v>45195.655963715282</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D108" s="1">
+        <v>20236257</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I108" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="2">
+        <v>45195.659392280097</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D109" s="1">
+        <v>20236289</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I109" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="2">
+        <v>45195.663837731481</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D110" s="1">
+        <v>20212623</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I110" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="2">
+        <v>45195.669614236111</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="D111" s="1">
+        <v>20236303</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I111" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="2">
+        <v>45195.672230219905</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D112" s="1">
+        <v>20203330</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I112" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K112" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L112" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M112" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="2">
+        <v>45195.688208587962</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="D113" s="1">
+        <v>20182545</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/quiz230925.xlsx
+++ b/data/quiz230925.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405580DA-44E0-3541-993A-D6162B412568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B0D3A6-88D0-B545-80B8-D0E968661268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35020" yWindow="500" windowWidth="33780" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="383">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -949,6 +949,228 @@
   <si>
     <t>언론방송융합미디어 전공</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>kimys236714@gmail.com</t>
+  </si>
+  <si>
+    <t>김용석</t>
+  </si>
+  <si>
+    <t>rla00604@gmail.com</t>
+  </si>
+  <si>
+    <t>김수연</t>
+  </si>
+  <si>
+    <t>jw011400@naver.com</t>
+  </si>
+  <si>
+    <t>안정우</t>
+  </si>
+  <si>
+    <t>cyurim3@gmail.com</t>
+  </si>
+  <si>
+    <t>최유림</t>
+  </si>
+  <si>
+    <t>a40432708@gmail.com</t>
+  </si>
+  <si>
+    <t>송준영</t>
+  </si>
+  <si>
+    <t>rlaeogus0704@naver.com</t>
+  </si>
+  <si>
+    <t>김대현</t>
+  </si>
+  <si>
+    <t>jungjukim0227@gmail.com</t>
+  </si>
+  <si>
+    <t>김정주</t>
+  </si>
+  <si>
+    <t>ysyscome@naver.com</t>
+  </si>
+  <si>
+    <t>김영서</t>
+  </si>
+  <si>
+    <t>qwerwer2551@naver.com</t>
+  </si>
+  <si>
+    <t>김경민</t>
+  </si>
+  <si>
+    <t>blleuey@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터테크</t>
+  </si>
+  <si>
+    <t>이예진</t>
+  </si>
+  <si>
+    <t>bsihyeon0707@gmail.com</t>
+  </si>
+  <si>
+    <t>박시현</t>
+  </si>
+  <si>
+    <t>tlswnals04@naver.com</t>
+  </si>
+  <si>
+    <t>신주민</t>
+  </si>
+  <si>
+    <t>rcn214@naver.com</t>
+  </si>
+  <si>
+    <t>김제승</t>
+  </si>
+  <si>
+    <t>impact0219@naver.com</t>
+  </si>
+  <si>
+    <t>김서언</t>
+  </si>
+  <si>
+    <t>k00e0096@naver.com</t>
+  </si>
+  <si>
+    <t>임민지</t>
+  </si>
+  <si>
+    <t>choims9064@gmail.com</t>
+  </si>
+  <si>
+    <t>최민서</t>
+  </si>
+  <si>
+    <t>ohj09170@naver.com</t>
+  </si>
+  <si>
+    <t>미디어스쿨</t>
+  </si>
+  <si>
+    <t>오현진</t>
+  </si>
+  <si>
+    <t>ckckguswns@naver.com</t>
+  </si>
+  <si>
+    <t>사회학과</t>
+  </si>
+  <si>
+    <t>차현준</t>
+  </si>
+  <si>
+    <t>bluejjun619@naver.com</t>
+  </si>
+  <si>
+    <t>윤영준</t>
+  </si>
+  <si>
+    <t>citchchache@gmail.com</t>
+  </si>
+  <si>
+    <t>공병우</t>
+  </si>
+  <si>
+    <t>xw2809@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠</t>
+  </si>
+  <si>
+    <t>이규빈</t>
+  </si>
+  <si>
+    <t>lsjlol1264@naver.com</t>
+  </si>
+  <si>
+    <t>이세진</t>
+  </si>
+  <si>
+    <t>rhguswo324@naver.com</t>
+  </si>
+  <si>
+    <t>고현재</t>
+  </si>
+  <si>
+    <t>pjw4063@naver.com</t>
+  </si>
+  <si>
+    <t>박지원</t>
+  </si>
+  <si>
+    <t>ksrkatie@naver.com</t>
+  </si>
+  <si>
+    <t>권소린</t>
+  </si>
+  <si>
+    <t>qazx429@naver.com</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>zo267869@naver.com</t>
+  </si>
+  <si>
+    <t>황태용</t>
+  </si>
+  <si>
+    <t>eunhorui1029@gmail.com</t>
+  </si>
+  <si>
+    <t>조은호</t>
+  </si>
+  <si>
+    <t>dyseo0303@gmail.com</t>
+  </si>
+  <si>
+    <t>서동영</t>
+  </si>
+  <si>
+    <t>kq872@naver.com</t>
+  </si>
+  <si>
+    <t>이원상</t>
+  </si>
+  <si>
+    <t>siyun8477@gmail.com</t>
+  </si>
+  <si>
+    <t>김시윤</t>
+  </si>
+  <si>
+    <t>chlgpals2507@naver.com</t>
+  </si>
+  <si>
+    <t>최혜민</t>
+  </si>
+  <si>
+    <t>sdg93712426@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>신동건</t>
+  </si>
+  <si>
+    <t>cheeseru0808@naver.com</t>
+  </si>
+  <si>
+    <t>인문학과</t>
+  </si>
+  <si>
+    <t>김민선</t>
   </si>
 </sst>
 </file>
@@ -1223,11 +1445,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N113"/>
+  <dimension ref="A1:N147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E127" sqref="E127"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F152" sqref="F152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5871,6 +6093,1400 @@
         <v>22</v>
       </c>
     </row>
+    <row r="114" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="2">
+        <v>45195.702914699075</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D114" s="1">
+        <v>20236714</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I114" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L114" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="2">
+        <v>45195.710346064814</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D115" s="1">
+        <v>20233608</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I115" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L115" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M115" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="2">
+        <v>45195.718374074073</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D116" s="1">
+        <v>20235202</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I116" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="2">
+        <v>45195.724055995372</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" s="1">
+        <v>20222143</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="2">
+        <v>45195.724545173609</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D118" s="1">
+        <v>20191218</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M118" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="2">
+        <v>45195.737441817131</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D119" s="1">
+        <v>20193604</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I119" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M119" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="2">
+        <v>45195.760108298608</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D120" s="1">
+        <v>20232318</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I120" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="2">
+        <v>45195.768342372685</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D121" s="1">
+        <v>20236713</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I121" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K121" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L121" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N121" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="2">
+        <v>45195.79314094907</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D122" s="1">
+        <v>20236707</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I122" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K122" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L122" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M122" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="2">
+        <v>45195.818547800925</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="D123" s="1">
+        <v>20203235</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I123" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K123" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L123" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="2">
+        <v>45195.82582706018</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D124" s="1">
+        <v>20235167</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I124" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K124" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L124" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N124" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="2">
+        <v>45195.867103483797</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D125" s="1">
+        <v>20236740</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I125" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K125" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L125" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M125" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="2">
+        <v>45195.88199415509</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D126" s="1">
+        <v>20232932</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I126" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K126" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L126" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N126" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="2">
+        <v>45195.88881290509</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D127" s="1">
+        <v>20236218</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I127" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K127" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L127" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N127" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="2">
+        <v>45195.891972349535</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D128" s="1">
+        <v>20202355</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I128" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K128" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N128" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="2">
+        <v>45195.907583391207</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D129" s="1">
+        <v>20236297</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I129" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K129" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N129" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="2">
+        <v>45195.907902766208</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D130" s="1">
+        <v>20232555</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I130" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M130" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="2">
+        <v>45195.915151111112</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D131" s="1">
+        <v>20192233</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K131" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L131" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M131" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="2">
+        <v>45195.91549881945</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D132" s="1">
+        <v>20226758</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I132" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K132" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M132" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="2">
+        <v>45195.934688854162</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D133" s="1">
+        <v>20235111</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I133" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="2">
+        <v>45195.939603958337</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D134" s="1">
+        <v>20202554</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I134" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K134" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L134" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M134" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="2">
+        <v>45195.952465138893</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D135" s="1">
+        <v>20182941</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I135" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M135" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="2">
+        <v>45195.954863946754</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D136" s="1">
+        <v>20183604</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I136" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K136" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L136" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N136" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="2">
+        <v>45195.971982627314</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D137" s="1">
+        <v>20233410</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I137" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K137" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L137" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M137" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="2">
+        <v>45195.99458677083</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D138" s="1">
+        <v>20231004</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I138" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="2">
+        <v>45196.006457824071</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D139" s="1">
+        <v>20232706</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I139" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K139" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L139" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N139" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="2">
+        <v>45196.008248483791</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D140" s="1">
+        <v>20197092</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I140" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K140" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L140" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N140" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="2">
+        <v>45196.025285787036</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D141" s="1">
+        <v>20223047</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I141" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K141" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L141" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N141" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="2">
+        <v>45196.027426273147</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D142" s="1">
+        <v>20235182</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H142" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I142" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K142" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L142" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N142" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="2">
+        <v>45196.044062824076</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D143" s="1">
+        <v>20193531</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H143" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I143" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K143" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L143" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N143" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="2">
+        <v>45196.050962962967</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D144" s="1">
+        <v>20236224</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H144" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I144" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K144" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L144" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M144" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="2">
+        <v>45196.133810370375</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D145" s="1">
+        <v>20181735</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H145" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I145" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K145" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L145" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N145" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="2">
+        <v>45196.238464733797</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="D146" s="1">
+        <v>20233322</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I146" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="2">
+        <v>45196.33594881944</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="D147" s="1">
+        <v>20201606</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H147" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I147" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K147" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L147" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M147" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/quiz230925.xlsx
+++ b/data/quiz230925.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B0D3A6-88D0-B545-80B8-D0E968661268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C400261F-6DAA-C840-8ECC-5255945F76FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35020" yWindow="500" windowWidth="33780" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="422">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1171,6 +1171,123 @@
   </si>
   <si>
     <t>김민선</t>
+  </si>
+  <si>
+    <t>sallylee12300@gmail.com</t>
+  </si>
+  <si>
+    <t>이상은</t>
+  </si>
+  <si>
+    <t>mys714@naver.com</t>
+  </si>
+  <si>
+    <t>문예슬</t>
+  </si>
+  <si>
+    <t>kimtaejung1053@gmail.com</t>
+  </si>
+  <si>
+    <t>김태정</t>
+  </si>
+  <si>
+    <t>ggwoo02211@gmail.com</t>
+  </si>
+  <si>
+    <t>박건우</t>
+  </si>
+  <si>
+    <t>hytree22@naver.com</t>
+  </si>
+  <si>
+    <t>신하영</t>
+  </si>
+  <si>
+    <t>clearrin55@gmail.com</t>
+  </si>
+  <si>
+    <t>김예린</t>
+  </si>
+  <si>
+    <t>jjedalee@gmail.com</t>
+  </si>
+  <si>
+    <t>정재은</t>
+  </si>
+  <si>
+    <t>ggjtt4051@gmail.com</t>
+  </si>
+  <si>
+    <t>경영대학</t>
+  </si>
+  <si>
+    <t>최아린</t>
+  </si>
+  <si>
+    <t>p51008085@gmail.com</t>
+  </si>
+  <si>
+    <t>박준수</t>
+  </si>
+  <si>
+    <t>gksgh2311@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경제학과 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전한호 </t>
+  </si>
+  <si>
+    <t>qkrwjdwns0526@gmail.com</t>
+  </si>
+  <si>
+    <t>박정준</t>
+  </si>
+  <si>
+    <t>mukyx00@naver.com</t>
+  </si>
+  <si>
+    <t>엄찬우</t>
+  </si>
+  <si>
+    <t>tnwls03270327@gmail.com</t>
+  </si>
+  <si>
+    <t>권수진</t>
+  </si>
+  <si>
+    <t>rkdus0413@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최가연</t>
+  </si>
+  <si>
+    <t>tjfud05@naver.com</t>
+  </si>
+  <si>
+    <t>박서령</t>
+  </si>
+  <si>
+    <t>qj2qmf@naver.com</t>
+  </si>
+  <si>
+    <t>원주현</t>
+  </si>
+  <si>
+    <t>lsh0409210@gmail.com</t>
+  </si>
+  <si>
+    <t>이시은</t>
+  </si>
+  <si>
+    <t>dlguswls0676@naver.com</t>
+  </si>
+  <si>
+    <t>인문학부 철학전공</t>
+  </si>
+  <si>
+    <t>이현진</t>
   </si>
 </sst>
 </file>
@@ -1445,11 +1562,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N147"/>
+  <dimension ref="A1:N165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F152" sqref="F152"/>
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7487,6 +7604,744 @@
         <v>30</v>
       </c>
     </row>
+    <row r="148" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="2">
+        <v>45196.398571550926</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D148" s="1">
+        <v>20226143</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H148" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I148" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L148" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N148" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="2">
+        <v>45196.441882638886</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D149" s="1">
+        <v>20191614</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H149" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I149" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L149" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M149" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="2">
+        <v>45196.464176539354</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D150" s="1">
+        <v>20235150</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F150" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H150" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I150" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K150" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L150" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N150" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="2">
+        <v>45196.479994664347</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D151" s="1">
+        <v>20232817</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="F151" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I151" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K151" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L151" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N151" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="2">
+        <v>45196.517125717597</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D152" s="1">
+        <v>20232724</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I152" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K152" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L152" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N152" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="2">
+        <v>45196.521937268517</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D153" s="1">
+        <v>20211509</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F153" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I153" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K153" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L153" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M153" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="2">
+        <v>45196.530340451391</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" s="1">
+        <v>20232134</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I154" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L154" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M154" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="2">
+        <v>45196.532302476851</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D155" s="1">
+        <v>20233051</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="F155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H155" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I155" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K155" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L155" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M155" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="2">
+        <v>45196.583080787037</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D156" s="1">
+        <v>20236726</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="F156" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H156" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I156" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K156" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L156" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N156" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="2">
+        <v>45196.591616909718</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D157" s="1">
+        <v>20232842</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="F157" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G157" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H157" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I157" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K157" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N157" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="2">
+        <v>45196.599361307875</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D158" s="1">
+        <v>20236129</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="F158" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G158" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H158" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I158" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K158" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L158" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N158" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="2">
+        <v>45196.613806909721</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D159" s="1">
+        <v>20202547</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H159" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I159" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K159" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L159" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N159" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="2">
+        <v>45196.629452789348</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D160" s="1">
+        <v>20192703</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H160" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I160" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K160" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L160" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N160" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="2">
+        <v>45196.641457175923</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D161" s="1">
+        <v>20236168</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G161" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H161" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I161" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K161" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L161" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M161" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="2">
+        <v>45196.642405486113</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D162" s="1">
+        <v>20233409</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G162" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H162" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I162" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K162" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L162" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N162" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="2">
+        <v>45196.643503495376</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D163" s="1">
+        <v>20202735</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H163" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I163" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K163" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L163" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M163" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="2">
+        <v>45196.64479150463</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D164" s="1">
+        <v>20233726</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H164" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I164" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K164" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L164" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M164" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="2">
+        <v>45196.658503159721</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="D165" s="1">
+        <v>20171078</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H165" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I165" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K165" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L165" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N165" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/quiz230925.xlsx
+++ b/data/quiz230925.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C400261F-6DAA-C840-8ECC-5255945F76FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2B6724-8A80-154B-867B-774C9CDC72C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-35020" yWindow="500" windowWidth="33780" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="452">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1288,6 +1288,96 @@
   </si>
   <si>
     <t>이현진</t>
+  </si>
+  <si>
+    <t>lelle0514@naver.com</t>
+  </si>
+  <si>
+    <t>김예진</t>
+  </si>
+  <si>
+    <t>rkdgodbs7148@naver.com</t>
+  </si>
+  <si>
+    <t>강해윤</t>
+  </si>
+  <si>
+    <t>yukuyl0625@naver.com</t>
+  </si>
+  <si>
+    <t>차유결</t>
+  </si>
+  <si>
+    <t>juh0611@naver.com</t>
+  </si>
+  <si>
+    <t>신주희</t>
+  </si>
+  <si>
+    <t>tjdud6975@naver.com</t>
+  </si>
+  <si>
+    <t>청각학전공</t>
+  </si>
+  <si>
+    <t>이서영</t>
+  </si>
+  <si>
+    <t>5542o@naver.com</t>
+  </si>
+  <si>
+    <t>권오준</t>
+  </si>
+  <si>
+    <t>thdrkdud456456@gmail.com</t>
+  </si>
+  <si>
+    <t>송가영</t>
+  </si>
+  <si>
+    <t>kns2266@naver.com</t>
+  </si>
+  <si>
+    <t>사학전공</t>
+  </si>
+  <si>
+    <t>김남석</t>
+  </si>
+  <si>
+    <t>kimcylove@naver.com</t>
+  </si>
+  <si>
+    <t>사회복지학전공</t>
+  </si>
+  <si>
+    <t>김채연</t>
+  </si>
+  <si>
+    <t>wldodxp@naver.com</t>
+  </si>
+  <si>
+    <t>박지영</t>
+  </si>
+  <si>
+    <t>heejae7942@naver.com</t>
+  </si>
+  <si>
+    <t>최희재</t>
+  </si>
+  <si>
+    <t>hyunbin7379@gmail.com</t>
+  </si>
+  <si>
+    <t>경영학부</t>
+  </si>
+  <si>
+    <t>정현빈</t>
+  </si>
+  <si>
+    <t>jkv0125@gmail.com</t>
+  </si>
+  <si>
+    <t>조경빈</t>
   </si>
 </sst>
 </file>
@@ -1562,11 +1652,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N165"/>
+  <dimension ref="A1:N178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E171" sqref="E171"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E182" sqref="E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8342,6 +8432,539 @@
         <v>22</v>
       </c>
     </row>
+    <row r="166" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="2">
+        <v>45196.665149548615</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="D166" s="1">
+        <v>20202513</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H166" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I166" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L166" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N166" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="2">
+        <v>45196.666595023147</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D167" s="1">
+        <v>20181702</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="F167" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H167" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I167" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K167" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L167" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M167" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="2">
+        <v>45196.674373703703</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D168" s="1">
+        <v>20231540</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G168" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H168" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I168" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K168" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L168" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N168" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="2">
+        <v>45196.677669710647</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D169" s="1">
+        <v>20221051</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="F169" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H169" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I169" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L169" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N169" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="2">
+        <v>45196.68047619213</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="D170" s="1">
+        <v>20203939</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H170" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I170" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K170" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N170" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="2">
+        <v>45196.683796550926</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D171" s="1">
+        <v>20226703</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="F171" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H171" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I171" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K171" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L171" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M171" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="2">
+        <v>45196.685737245367</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D172" s="1">
+        <v>20222968</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F172" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H172" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I172" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K172" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L172" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N172" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="2">
+        <v>45196.730062210649</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D173" s="1">
+        <v>20201012</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="F173" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H173" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I173" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K173" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L173" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M173" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="2">
+        <v>45196.730773726857</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D174" s="1">
+        <v>20212320</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="F174" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G174" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H174" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I174" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K174" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N174" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="2">
+        <v>45196.735598356478</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D175" s="1">
+        <v>20212727</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F175" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H175" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I175" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K175" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L175" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M175" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="2">
+        <v>45196.773615057871</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D176" s="1">
+        <v>20236301</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H176" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I176" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K176" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L176" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M176" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="2">
+        <v>45196.786713692127</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D177" s="1">
+        <v>20233036</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H177" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I177" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K177" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L177" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M177" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="2">
+        <v>45196.791591284724</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" s="1">
+        <v>20212135</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H178" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I178" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K178" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L178" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N178" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/quiz230925.xlsx
+++ b/data/quiz230925.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kwlee/My_Google_Drive/Works/Class/Statistics/R.WD/Class_data/class202302/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C2B6724-8A80-154B-867B-774C9CDC72C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89176552-ED9D-554F-A5C5-18145F49E09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35020" yWindow="500" windowWidth="33780" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35040" yWindow="500" windowWidth="33780" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1784" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3114" uniqueCount="733">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -1378,6 +1378,849 @@
   </si>
   <si>
     <t>조경빈</t>
+  </si>
+  <si>
+    <t>csk331400@gamil.com</t>
+  </si>
+  <si>
+    <t>장승규</t>
+  </si>
+  <si>
+    <t>kirokmom@naver.com</t>
+  </si>
+  <si>
+    <t>김병관</t>
+  </si>
+  <si>
+    <t>lyd18207267351@gmail.com</t>
+  </si>
+  <si>
+    <t>문화산업</t>
+  </si>
+  <si>
+    <t>LIU YANDAN</t>
+  </si>
+  <si>
+    <t>jinwoo3817@naver.com</t>
+  </si>
+  <si>
+    <t>원진우</t>
+  </si>
+  <si>
+    <t>679qmg@gmail.com</t>
+  </si>
+  <si>
+    <t>이혜원</t>
+  </si>
+  <si>
+    <t>20223614@sdhs.gwe.hs.kr</t>
+  </si>
+  <si>
+    <t>윤태웅</t>
+  </si>
+  <si>
+    <t>tlsfkdhs0321@naver.com</t>
+  </si>
+  <si>
+    <t>신라온</t>
+  </si>
+  <si>
+    <t>smilerina1@naver.com</t>
+  </si>
+  <si>
+    <t>조예린</t>
+  </si>
+  <si>
+    <t>namhyunwoo1004@gmail.com</t>
+  </si>
+  <si>
+    <t>금융재무</t>
+  </si>
+  <si>
+    <t>남현우</t>
+  </si>
+  <si>
+    <t>zzy15908664762@Gmail.com</t>
+  </si>
+  <si>
+    <t>ZHAO ZIYAN</t>
+  </si>
+  <si>
+    <t>20236207@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">간호학과 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">권기영 </t>
+  </si>
+  <si>
+    <t>ekgus0916@naver.com</t>
+  </si>
+  <si>
+    <t>김다현</t>
+  </si>
+  <si>
+    <t>csk7915@naver.com</t>
+  </si>
+  <si>
+    <t>정치행정학과</t>
+  </si>
+  <si>
+    <t>최선규</t>
+  </si>
+  <si>
+    <t>fkdldjs0322@naver.com</t>
+  </si>
+  <si>
+    <t>이지희</t>
+  </si>
+  <si>
+    <t>xornjsskdwk0902@gmail.com</t>
+  </si>
+  <si>
+    <t>인문학부 사학전공</t>
+  </si>
+  <si>
+    <t>김태민</t>
+  </si>
+  <si>
+    <t>wjdgusgh1021@naver.com</t>
+  </si>
+  <si>
+    <t>정현호</t>
+  </si>
+  <si>
+    <t>hyhyoeun0428@gmail.com</t>
+  </si>
+  <si>
+    <t>장효은</t>
+  </si>
+  <si>
+    <t>dbswlals0326@naver.com</t>
+  </si>
+  <si>
+    <t>윤지민</t>
+  </si>
+  <si>
+    <t>rian213@naver.com</t>
+  </si>
+  <si>
+    <t>안리안</t>
+  </si>
+  <si>
+    <t>ghdfo7882@gmail.com</t>
+  </si>
+  <si>
+    <t>스마트IoT</t>
+  </si>
+  <si>
+    <t>김홍래</t>
+  </si>
+  <si>
+    <t>20232565@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이지안</t>
+  </si>
+  <si>
+    <t>kimsemin3@naver.com</t>
+  </si>
+  <si>
+    <t>김세민</t>
+  </si>
+  <si>
+    <t>donghyunkim0404@naver.com</t>
+  </si>
+  <si>
+    <t>김동현</t>
+  </si>
+  <si>
+    <t>yukima0110@naver.com</t>
+  </si>
+  <si>
+    <t>유설진</t>
+  </si>
+  <si>
+    <t>0319dy@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터학과</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
+    <t>limjs1006@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌학부</t>
+  </si>
+  <si>
+    <t>임진서</t>
+  </si>
+  <si>
+    <t>ehgus4597@gmail.com</t>
+  </si>
+  <si>
+    <t>김도현</t>
+  </si>
+  <si>
+    <t>tibbit2@naver.com</t>
+  </si>
+  <si>
+    <t>AI의료융합전공</t>
+  </si>
+  <si>
+    <t>정윤재</t>
+  </si>
+  <si>
+    <t>hhuning8814@gmail.com</t>
+  </si>
+  <si>
+    <t>임지우</t>
+  </si>
+  <si>
+    <t>bill916@naver.com</t>
+  </si>
+  <si>
+    <t>의약신소재</t>
+  </si>
+  <si>
+    <t>신대철</t>
+  </si>
+  <si>
+    <t>steve0711@naver.com</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>rjfrh11@naver.com</t>
+  </si>
+  <si>
+    <t>반도체전공</t>
+  </si>
+  <si>
+    <t>서무혁</t>
+  </si>
+  <si>
+    <t>meldek98@gmail.com</t>
+  </si>
+  <si>
+    <t>강비성</t>
+  </si>
+  <si>
+    <t>yoo040128@naver.com</t>
+  </si>
+  <si>
+    <t>유승주</t>
+  </si>
+  <si>
+    <t>lsk8424@naver.com</t>
+  </si>
+  <si>
+    <t>이상기</t>
+  </si>
+  <si>
+    <t>kkj20040117@gmail.com</t>
+  </si>
+  <si>
+    <t>권경진</t>
+  </si>
+  <si>
+    <t>rlaekdp1505@naver.com</t>
+  </si>
+  <si>
+    <t>김다예</t>
+  </si>
+  <si>
+    <t>vivace3990@gmail.com</t>
+  </si>
+  <si>
+    <t>김정현</t>
+  </si>
+  <si>
+    <t>tlsrkdms12345@naver.com</t>
+  </si>
+  <si>
+    <t>신가은</t>
+  </si>
+  <si>
+    <t>sshs0206@naver.com</t>
+  </si>
+  <si>
+    <t>최지민</t>
+  </si>
+  <si>
+    <t>wnyuna04@gmail.com</t>
+  </si>
+  <si>
+    <t>주윤아</t>
+  </si>
+  <si>
+    <t>whgdktlfgdj2@naver.com</t>
+  </si>
+  <si>
+    <t>국어국문학과</t>
+  </si>
+  <si>
+    <t>변용찬</t>
+  </si>
+  <si>
+    <t>sun21cc2@naver.com</t>
+  </si>
+  <si>
+    <t>이민규</t>
+  </si>
+  <si>
+    <t>psp528500@gmail.com</t>
+  </si>
+  <si>
+    <t>박준형</t>
+  </si>
+  <si>
+    <t>memo0103@naver.com</t>
+  </si>
+  <si>
+    <t>안현서</t>
+  </si>
+  <si>
+    <t>implibra88@gmail.com</t>
+  </si>
+  <si>
+    <t>김유진</t>
+  </si>
+  <si>
+    <t>amy001031@naver.com</t>
+  </si>
+  <si>
+    <t>전예림</t>
+  </si>
+  <si>
+    <t>minzero23@naver.com</t>
+  </si>
+  <si>
+    <t>동민영</t>
+  </si>
+  <si>
+    <t>02c06c@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어</t>
+  </si>
+  <si>
+    <t>김채현</t>
+  </si>
+  <si>
+    <t>psjj3840@gmail.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>cheis11@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT</t>
+  </si>
+  <si>
+    <t>김찬호</t>
+  </si>
+  <si>
+    <t>lceda1011@naver.com</t>
+  </si>
+  <si>
+    <t>이채은</t>
+  </si>
+  <si>
+    <t>wotmddl3947@gmail.com</t>
+  </si>
+  <si>
+    <t>류재승</t>
+  </si>
+  <si>
+    <t>dlwodms5596@naver.com</t>
+  </si>
+  <si>
+    <t>이재은</t>
+  </si>
+  <si>
+    <t>choeunland@gmail.com</t>
+  </si>
+  <si>
+    <t>철학과</t>
+  </si>
+  <si>
+    <t>송민혁</t>
+  </si>
+  <si>
+    <t>jyn10131@naver.com</t>
+  </si>
+  <si>
+    <t>정예나</t>
+  </si>
+  <si>
+    <t>rlatjdnjs000@gmail.com</t>
+  </si>
+  <si>
+    <t>김서원</t>
+  </si>
+  <si>
+    <t>yonj2sj@naver.com</t>
+  </si>
+  <si>
+    <t>양은채</t>
+  </si>
+  <si>
+    <t>seraphic_0913@naver.com</t>
+  </si>
+  <si>
+    <t>배윤서</t>
+  </si>
+  <si>
+    <t>sysy050300@naver.com</t>
+  </si>
+  <si>
+    <t>고서연</t>
+  </si>
+  <si>
+    <t>se0870@naver.com</t>
+  </si>
+  <si>
+    <t>이세은</t>
+  </si>
+  <si>
+    <t>qkrwnsdud1019@gmail.com</t>
+  </si>
+  <si>
+    <t>kimcr0678@gmail.com</t>
+  </si>
+  <si>
+    <t>김채령</t>
+  </si>
+  <si>
+    <t>suin207846@naver.com</t>
+  </si>
+  <si>
+    <t>안수인</t>
+  </si>
+  <si>
+    <t>sexytaegeun@gmail.com</t>
+  </si>
+  <si>
+    <t>성태근</t>
+  </si>
+  <si>
+    <t>teo48253@gmail.com</t>
+  </si>
+  <si>
+    <t>이수혁</t>
+  </si>
+  <si>
+    <t>judy030427@naver.com</t>
+  </si>
+  <si>
+    <t>오주영</t>
+  </si>
+  <si>
+    <t>hayeong206@gmail.com</t>
+  </si>
+  <si>
+    <t>조하영</t>
+  </si>
+  <si>
+    <t>dpwls040103@naver.com</t>
+  </si>
+  <si>
+    <t>pig6832@naver.com</t>
+  </si>
+  <si>
+    <t>junhvn1@gmail.com</t>
+  </si>
+  <si>
+    <t>박준한</t>
+  </si>
+  <si>
+    <t>asd1231077@naver.com</t>
+  </si>
+  <si>
+    <t>김민경</t>
+  </si>
+  <si>
+    <t>csnoi@naver.com</t>
+  </si>
+  <si>
+    <t>원현서</t>
+  </si>
+  <si>
+    <t>eugene3551@gmail.com</t>
+  </si>
+  <si>
+    <t>유수영</t>
+  </si>
+  <si>
+    <t>hyj1141@naver.com</t>
+  </si>
+  <si>
+    <t>한예지</t>
+  </si>
+  <si>
+    <t>ssb060333@gmail.com</t>
+  </si>
+  <si>
+    <t>신수빈</t>
+  </si>
+  <si>
+    <t>20233825@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>엄서현</t>
+  </si>
+  <si>
+    <t>gggp1224@naver.com</t>
+  </si>
+  <si>
+    <t>임재우</t>
+  </si>
+  <si>
+    <t>rhksan324@naver.com</t>
+  </si>
+  <si>
+    <t>이관무</t>
+  </si>
+  <si>
+    <t>back8028@naver.com</t>
+  </si>
+  <si>
+    <t>백재영</t>
+  </si>
+  <si>
+    <t>equi236@naver.com</t>
+  </si>
+  <si>
+    <t>박철웅</t>
+  </si>
+  <si>
+    <t>dltmdxo0123@naver.com</t>
+  </si>
+  <si>
+    <t>이승태</t>
+  </si>
+  <si>
+    <t>minho020122@gmail.com</t>
+  </si>
+  <si>
+    <t>김민호</t>
+  </si>
+  <si>
+    <t>mhkimghrhkd@naver.com</t>
+  </si>
+  <si>
+    <t>김민혁</t>
+  </si>
+  <si>
+    <t>yewonshine@naver.com</t>
+  </si>
+  <si>
+    <t>허예원</t>
+  </si>
+  <si>
+    <t>pgw0814@gmail.com</t>
+  </si>
+  <si>
+    <t>박지우</t>
+  </si>
+  <si>
+    <t>sjb081235@naver.com</t>
+  </si>
+  <si>
+    <t>신종범</t>
+  </si>
+  <si>
+    <t>smart0403p@naver.com</t>
+  </si>
+  <si>
+    <t>kwangsik04@naver.com</t>
+  </si>
+  <si>
+    <t>성광식</t>
+  </si>
+  <si>
+    <t>homelearn04@naver.com</t>
+  </si>
+  <si>
+    <t>박종</t>
+  </si>
+  <si>
+    <t>won993456@naver.com</t>
+  </si>
+  <si>
+    <t>정경원</t>
+  </si>
+  <si>
+    <t>dbwlgns1307@naver.com</t>
+  </si>
+  <si>
+    <t>유지훈</t>
+  </si>
+  <si>
+    <t>leesave9@naver.com</t>
+  </si>
+  <si>
+    <t>인문학부 국어국문학전공</t>
+  </si>
+  <si>
+    <t>이혁재</t>
+  </si>
+  <si>
+    <t>hogin0912@naver.com</t>
+  </si>
+  <si>
+    <t>신호진</t>
+  </si>
+  <si>
+    <t>dutmddus1219@naver.com</t>
+  </si>
+  <si>
+    <t>영어영문</t>
+  </si>
+  <si>
+    <t>여승연</t>
+  </si>
+  <si>
+    <t>0310cherry@naver.com</t>
+  </si>
+  <si>
+    <t>이재원</t>
+  </si>
+  <si>
+    <t>aoa0226@naver.com</t>
+  </si>
+  <si>
+    <t>강문원</t>
+  </si>
+  <si>
+    <t>yoonsm4538@gmail.com</t>
+  </si>
+  <si>
+    <t>윤상민</t>
+  </si>
+  <si>
+    <t>daeun8937@naver.com</t>
+  </si>
+  <si>
+    <t>최다은</t>
+  </si>
+  <si>
+    <t>kimkitty040510@gmail.com</t>
+  </si>
+  <si>
+    <t>yeshin05@naver.com</t>
+  </si>
+  <si>
+    <t>최예원</t>
+  </si>
+  <si>
+    <t>123qazwsx12@naver.com</t>
+  </si>
+  <si>
+    <t>전예진</t>
+  </si>
+  <si>
+    <t>kilucas45@gmail.com</t>
+  </si>
+  <si>
+    <t>김동건</t>
+  </si>
+  <si>
+    <t>pjuns502@gmail.com</t>
+  </si>
+  <si>
+    <t>벅준현</t>
+  </si>
+  <si>
+    <t>hyeoni8635@daum.net</t>
+  </si>
+  <si>
+    <t>임서현</t>
+  </si>
+  <si>
+    <t>hyunseo4370@gmail.com</t>
+  </si>
+  <si>
+    <t>장현서</t>
+  </si>
+  <si>
+    <t>pouoqjs@naver.com</t>
+  </si>
+  <si>
+    <t>서준서</t>
+  </si>
+  <si>
+    <t>alscoco100@gmail.com</t>
+  </si>
+  <si>
+    <t>식품양양학과</t>
+  </si>
+  <si>
+    <t>김민채</t>
+  </si>
+  <si>
+    <t>040415kimdh@naver.com</t>
+  </si>
+  <si>
+    <t>spungseon@gmail.com</t>
+  </si>
+  <si>
+    <t>김서희</t>
+  </si>
+  <si>
+    <t>phyi0915@naver.com</t>
+  </si>
+  <si>
+    <t>백승진</t>
+  </si>
+  <si>
+    <t>sungjuwon1@gmail.com</t>
+  </si>
+  <si>
+    <t>컨텐츠IT전공</t>
+  </si>
+  <si>
+    <t>성주원</t>
+  </si>
+  <si>
+    <t>iamjjum@naver.com</t>
+  </si>
+  <si>
+    <t>roy041108@gmail.com</t>
+  </si>
+  <si>
+    <t>신영훈</t>
+  </si>
+  <si>
+    <t>1004eunsei@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌비즈니스학과</t>
+  </si>
+  <si>
+    <t>조은세</t>
+  </si>
+  <si>
+    <t>athboy3@gmail.com</t>
+  </si>
+  <si>
+    <t>안태현</t>
+  </si>
+  <si>
+    <t>wkdtngus2001@naver.com</t>
+  </si>
+  <si>
+    <t>장수현</t>
+  </si>
+  <si>
+    <t>urica45642@gmail.com</t>
+  </si>
+  <si>
+    <t>유시현</t>
+  </si>
+  <si>
+    <t>sarah04113@naver.com</t>
+  </si>
+  <si>
+    <t>박사랑</t>
+  </si>
+  <si>
+    <t>smiledjwj@naver.com</t>
+  </si>
+  <si>
+    <t>김지우</t>
+  </si>
+  <si>
+    <t>rhdskrud123@naver.com</t>
+  </si>
+  <si>
+    <t>공나경</t>
+  </si>
+  <si>
+    <t>mu3218712@naver.com</t>
+  </si>
+  <si>
+    <t>이무원</t>
+  </si>
+  <si>
+    <t>im3790@naver.com</t>
+  </si>
+  <si>
+    <t>반도체학과</t>
+  </si>
+  <si>
+    <t>임진형</t>
+  </si>
+  <si>
+    <t>hyelinj27@gmail.com</t>
+  </si>
+  <si>
+    <t>진혜린</t>
+  </si>
+  <si>
+    <t>jimin040719@naver.com</t>
+  </si>
+  <si>
+    <t>박지민</t>
+  </si>
+  <si>
+    <t>mhw040414@naver.com</t>
+  </si>
+  <si>
+    <t>문희원</t>
+  </si>
+  <si>
+    <t>amielee1997@naver.com</t>
+  </si>
+  <si>
+    <t>이지수</t>
+  </si>
+  <si>
+    <t>minjeong7432@gmail.com</t>
+  </si>
+  <si>
+    <t>김민정</t>
+  </si>
+  <si>
+    <t>qodnwnop@naver.com</t>
+  </si>
+  <si>
+    <t>이우주</t>
+  </si>
+  <si>
+    <t>woojin984778@gmail.com</t>
+  </si>
+  <si>
+    <t>이우진</t>
+  </si>
+  <si>
+    <t>dongwoo2869@naver.com</t>
+  </si>
+  <si>
+    <t>남동우</t>
+  </si>
+  <si>
+    <t>jaejae7070@naver.com</t>
+  </si>
+  <si>
+    <t>이재빈</t>
+  </si>
+  <si>
+    <t>aissipar3@naver.com</t>
+  </si>
+  <si>
+    <t>광고홍보</t>
+  </si>
+  <si>
+    <t>김현채</t>
   </si>
 </sst>
 </file>
@@ -1652,11 +2495,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N178"/>
+  <dimension ref="A1:N311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E182" sqref="E182"/>
+      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A311" sqref="A311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8965,6 +9808,5459 @@
         <v>30</v>
       </c>
     </row>
+    <row r="179" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="2">
+        <v>45196.813383981484</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D179" s="1">
+        <v>20203536</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G179" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H179" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I179" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K179" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L179" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M179" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="2">
+        <v>45196.819160833329</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D180" s="1">
+        <v>20192709</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H180" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I180" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L180" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N180" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="2">
+        <v>45196.822858587962</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D181" s="1">
+        <v>20218006</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H181" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I181" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K181" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L181" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M181" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="2">
+        <v>45196.832034328705</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D182" s="1">
+        <v>20222552</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F182" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H182" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I182" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K182" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L182" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N182" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="2">
+        <v>45196.844411631944</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D183" s="1">
+        <v>20222750</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F183" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H183" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I183" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K183" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L183" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M183" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="2">
+        <v>45196.853979618056</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D184" s="1">
+        <v>20235220</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F184" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H184" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I184" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K184" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L184" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N184" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="2">
+        <v>45196.863155069441</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D185" s="1">
+        <v>20233522</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F185" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G185" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H185" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I185" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K185" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L185" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N185" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="2">
+        <v>45196.872149803239</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D186" s="1">
+        <v>20236293</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="F186" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G186" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H186" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I186" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K186" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L186" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M186" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="2">
+        <v>45196.876836932875</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D187" s="1">
+        <v>20202948</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I187" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K187" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L187" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N187" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="2">
+        <v>45196.87855400463</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D188" s="1">
+        <v>20208013</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H188" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I188" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K188" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L188" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M188" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="2">
+        <v>45196.893373865736</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D189" s="1">
+        <v>20236207</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="F189" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H189" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I189" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K189" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L189" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N189" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="2">
+        <v>45196.914893402776</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D190" s="1">
+        <v>20217125</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H190" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I190" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L190" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M190" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="2">
+        <v>45196.915099351856</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D191" s="1">
+        <v>20182440</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H191" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I191" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L191" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N191" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="2">
+        <v>45196.919689375005</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D192" s="1">
+        <v>20231075</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="F192" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G192" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H192" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I192" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K192" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L192" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N192" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="2">
+        <v>45196.936766539351</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="D193" s="1">
+        <v>20181027</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="F193" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G193" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H193" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I193" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K193" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L193" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M193" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="2">
+        <v>45196.944950243051</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D194" s="1">
+        <v>20193647</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="F194" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G194" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H194" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I194" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K194" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M194" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="2">
+        <v>45196.946606041667</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D195" s="1">
+        <v>20236288</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G195" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H195" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I195" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K195" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L195" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N195" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="2">
+        <v>45196.975591956019</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D196" s="1">
+        <v>20235219</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G196" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H196" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I196" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K196" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L196" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N196" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="2">
+        <v>45196.975617268516</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D197" s="1">
+        <v>20233823</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G197" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H197" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I197" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K197" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M197" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="2">
+        <v>45197.03536494213</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="D198" s="1">
+        <v>20217142</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G198" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H198" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I198" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K198" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L198" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N198" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="2">
+        <v>45197.095137326389</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D199" s="1">
+        <v>20232565</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G199" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H199" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I199" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K199" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L199" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N199" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="2">
+        <v>45197.131851550927</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D200" s="1">
+        <v>20233607</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="F200" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G200" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H200" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I200" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K200" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N200" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="2">
+        <v>45197.13647975694</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D201" s="1">
+        <v>20232204</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="F201" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G201" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H201" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I201" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J201" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K201" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L201" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M201" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="2">
+        <v>45197.318430439816</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D202" s="1">
+        <v>20192120</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H202" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I202" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J202" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K202" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N202" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="2">
+        <v>45197.338172974538</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="D203" s="1">
+        <v>20225116</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="F203" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G203" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H203" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I203" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J203" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K203" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N203" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="2">
+        <v>45197.447041284722</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="D204" s="1">
+        <v>20236424</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="F204" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G204" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H204" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I204" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J204" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K204" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N204" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="2">
+        <v>45197.471533136573</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D205" s="1">
+        <v>20223208</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="F205" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G205" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H205" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I205" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J205" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K205" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N205" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="2">
+        <v>45197.499774548611</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="D206" s="1">
+        <v>20216750</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="F206" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G206" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H206" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I206" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J206" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K206" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M206" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="2">
+        <v>45197.516383275462</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D207" s="1">
+        <v>20236635</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="F207" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G207" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H207" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I207" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J207" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K207" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N207" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="2">
+        <v>45197.519291168981</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="D208" s="1">
+        <v>20196621</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F208" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G208" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H208" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I208" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K208" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L208" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N208" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="2">
+        <v>45197.526552662035</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D209" s="1">
+        <v>20183831</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="F209" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G209" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H209" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I209" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J209" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K209" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N209" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="2">
+        <v>45197.527548715283</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="D210" s="1">
+        <v>20193328</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="F210" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G210" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H210" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I210" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J210" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K210" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M210" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="2">
+        <v>45197.529397858802</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D211" s="1">
+        <v>20235102</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="F211" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G211" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H211" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I211" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J211" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K211" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N211" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="2">
+        <v>45197.532602013889</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D212" s="1">
+        <v>20232622</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F212" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G212" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H212" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I212" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J212" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K212" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L212" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N212" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="2">
+        <v>45197.539023217592</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="D213" s="1">
+        <v>20172428</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="F213" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G213" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H213" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I213" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J213" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K213" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L213" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N213" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="2">
+        <v>45197.547140798612</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D214" s="1">
+        <v>20236206</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="F214" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G214" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H214" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I214" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J214" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K214" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L214" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M214" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="2">
+        <v>45197.582066840274</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D215" s="1">
+        <v>20222908</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G215" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H215" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I215" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J215" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K215" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N215" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="2">
+        <v>45197.584855462963</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D216" s="1">
+        <v>20171605</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="F216" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G216" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H216" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I216" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J216" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K216" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N216" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="2">
+        <v>45197.587365127314</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D217" s="1">
+        <v>20217037</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F217" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G217" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H217" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I217" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J217" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K217" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N217" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="2">
+        <v>45197.611929375002</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D218" s="1">
+        <v>20236174</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="F218" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G218" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H218" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I218" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J218" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K218" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M218" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="2">
+        <v>45197.630711574078</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D219" s="1">
+        <v>20236294</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="F219" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G219" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H219" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I219" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J219" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K219" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N219" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="2">
+        <v>45197.647539606478</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D220" s="1">
+        <v>20181051</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="F220" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G220" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H220" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I220" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J220" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K220" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M220" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="2">
+        <v>45197.658462488427</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D221" s="1">
+        <v>20235229</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="F221" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G221" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H221" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I221" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J221" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K221" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N221" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="2">
+        <v>45197.690926354167</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D222" s="1">
+        <v>20232960</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F222" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G222" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H222" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I222" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J222" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K222" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L222" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N222" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="2">
+        <v>45197.701006944444</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D223" s="1">
+        <v>20236142</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G223" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H223" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I223" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J223" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K223" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L223" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N223" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="2">
+        <v>45197.723294930554</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D224" s="1">
+        <v>20233711</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F224" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G224" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H224" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I224" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J224" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K224" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L224" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M224" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="2">
+        <v>45197.762497002317</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D225" s="1">
+        <v>20193426</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="F225" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G225" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H225" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I225" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J225" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K225" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N225" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="2">
+        <v>45197.779267743055</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D226" s="1">
+        <v>20212945</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G226" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H226" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I226" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J226" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K226" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L226" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M226" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="2">
+        <v>45197.786185023149</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="D227" s="1">
+        <v>20217055</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="F227" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G227" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H227" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I227" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J227" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K227" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L227" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N227" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="2">
+        <v>45197.79770891204</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="D228" s="1">
+        <v>20215154</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="F228" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G228" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H228" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I228" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J228" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K228" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L228" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M228" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="2">
+        <v>45197.808260104168</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D229" s="1">
+        <v>20195143</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="F229" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G229" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H229" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I229" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J229" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K229" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L229" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M229" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="2">
+        <v>45197.816025555556</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D230" s="1">
+        <v>20233955</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="F230" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G230" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H230" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I230" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J230" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K230" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L230" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M230" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="2">
+        <v>45197.838965312505</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="D231" s="1">
+        <v>20195157</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="F231" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G231" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H231" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I231" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J231" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K231" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L231" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N231" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="2">
+        <v>45197.84358883102</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D232" s="1">
+        <v>20236631</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="F232" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G232" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H232" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I232" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J232" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K232" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L232" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N232" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="2">
+        <v>45197.866350231481</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="D233" s="1">
+        <v>20181054</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="F233" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G233" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H233" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I233" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J233" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K233" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L233" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N233" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="2">
+        <v>45197.869454664353</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C234" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D234" s="1">
+        <v>20233847</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="F234" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G234" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H234" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I234" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J234" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K234" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L234" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M234" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="2">
+        <v>45197.885490787041</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="C235" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D235" s="1">
+        <v>20202604</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F235" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G235" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H235" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I235" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J235" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K235" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L235" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N235" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="2">
+        <v>45197.915528506943</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="C236" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D236" s="1">
+        <v>20236742</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="F236" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G236" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H236" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I236" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J236" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K236" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L236" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N236" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="2">
+        <v>45197.951166319443</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C237" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D237" s="1">
+        <v>20232720</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="F237" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G237" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H237" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I237" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J237" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K237" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L237" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N237" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="2">
+        <v>45197.963115520834</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="C238" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" s="1">
+        <v>20232101</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="F238" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G238" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H238" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I238" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J238" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K238" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L238" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M238" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="2">
+        <v>45197.981657407407</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="C239" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D239" s="1">
+        <v>20232563</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="F239" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G239" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H239" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I239" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J239" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K239" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L239" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M239" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="2">
+        <v>45197.994257673607</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C240" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D240" s="1">
+        <v>20235172</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F240" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G240" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H240" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I240" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J240" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K240" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L240" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M240" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="2">
+        <v>45198.019413877315</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D241" s="1">
+        <v>20236230</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G241" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H241" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I241" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J241" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K241" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L241" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M241" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="2">
+        <v>45198.022393865744</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C242" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D242" s="1">
+        <v>20222977</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G242" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H242" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I242" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J242" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K242" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L242" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M242" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="2">
+        <v>45198.044884976851</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C243" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D243" s="1">
+        <v>20232118</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G243" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H243" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I243" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J243" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K243" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M243" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="2">
+        <v>45198.046130057875</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C244" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D244" s="1">
+        <v>20233420</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G244" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H244" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I244" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J244" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K244" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M244" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="2">
+        <v>45198.051290289353</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C245" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D245" s="1">
+        <v>20236263</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G245" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H245" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I245" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J245" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K245" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M245" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="2">
+        <v>45198.094551840273</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D246" s="1">
+        <v>20233430</v>
+      </c>
+      <c r="E246" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G246" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H246" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I246" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J246" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K246" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N246" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="2">
+        <v>45198.150262511575</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C247" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D247" s="1">
+        <v>20236758</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G247" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H247" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I247" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J247" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K247" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M247" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="2">
+        <v>45198.47651320602</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="C248" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D248" s="1">
+        <v>20232740</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F248" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G248" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H248" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I248" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J248" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K248" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M248" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="2">
+        <v>45198.531758506942</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C249" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D249" s="1">
+        <v>20192614</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G249" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H249" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I249" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J249" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K249" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N249" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="2">
+        <v>45198.583359178243</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C250" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D250" s="1">
+        <v>20233804</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G250" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H250" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I250" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J250" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K250" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L250" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N250" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="2">
+        <v>45198.590116712963</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D251" s="1">
+        <v>20202992</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G251" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H251" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I251" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J251" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K251" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L251" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M251" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="2">
+        <v>45198.618014027779</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C252" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D252" s="1">
+        <v>20235214</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G252" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H252" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I252" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J252" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K252" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L252" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M252" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="2">
+        <v>45198.633013449071</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D253" s="1">
+        <v>20217095</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I253" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K253" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N253" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="2">
+        <v>45198.637957430554</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C254" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D254" s="1">
+        <v>20222614</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G254" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H254" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I254" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J254" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K254" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L254" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N254" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="2">
+        <v>45198.643986076393</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C255" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D255" s="1">
+        <v>20233825</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G255" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H255" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I255" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J255" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K255" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L255" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M255" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="2">
+        <v>45198.699529097226</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C256" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D256" s="1">
+        <v>20202742</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="F256" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G256" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H256" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I256" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J256" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K256" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L256" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M256" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="2">
+        <v>45198.699940462961</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C257" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D257" s="1">
+        <v>20203001</v>
+      </c>
+      <c r="E257" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="F257" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G257" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H257" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I257" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J257" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K257" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L257" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M257" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="2">
+        <v>45198.711583067125</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C258" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D258" s="1">
+        <v>20202972</v>
+      </c>
+      <c r="E258" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="F258" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G258" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H258" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I258" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J258" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K258" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L258" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N258" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="2">
+        <v>45198.720673402779</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C259" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D259" s="1">
+        <v>20181617</v>
+      </c>
+      <c r="E259" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F259" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G259" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H259" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I259" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J259" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K259" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L259" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N259" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="2">
+        <v>45198.762467187495</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C260" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D260" s="1">
+        <v>20202837</v>
+      </c>
+      <c r="E260" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="F260" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G260" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H260" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I260" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J260" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K260" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L260" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M260" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="2">
+        <v>45198.77701474537</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D261" s="1">
+        <v>20212709</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="F261" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G261" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H261" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I261" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J261" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K261" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L261" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N261" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="2">
+        <v>45198.797329594905</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C262" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D262" s="1">
+        <v>20204110</v>
+      </c>
+      <c r="E262" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="F262" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G262" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H262" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I262" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J262" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K262" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L262" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N262" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="2">
+        <v>45198.81941423611</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C263" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D263" s="1">
+        <v>20217122</v>
+      </c>
+      <c r="E263" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F263" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G263" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I263" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J263" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K263" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L263" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N263" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="2">
+        <v>45198.890401805555</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C264" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D264" s="1">
+        <v>20203409</v>
+      </c>
+      <c r="E264" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F264" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H264" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I264" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J264" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K264" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L264" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M264" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="2">
+        <v>45198.897097326393</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C265" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D265" s="1">
+        <v>20232334</v>
+      </c>
+      <c r="E265" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="F265" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G265" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H265" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I265" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J265" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K265" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L265" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N265" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="2">
+        <v>45198.91819434028</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D266" s="1">
+        <v>20232719</v>
+      </c>
+      <c r="E266" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="F266" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H266" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I266" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J266" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K266" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L266" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M266" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="2">
+        <v>45198.947080266204</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D267" s="1">
+        <v>20233619</v>
+      </c>
+      <c r="E267" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G267" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H267" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I267" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J267" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K267" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L267" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M267" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="2">
+        <v>45198.97342469907</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="C268" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D268" s="1">
+        <v>20235170</v>
+      </c>
+      <c r="E268" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="F268" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G268" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H268" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I268" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J268" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K268" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L268" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N268" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="2">
+        <v>45198.976868981481</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="C269" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D269" s="1">
+        <v>20181095</v>
+      </c>
+      <c r="E269" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="F269" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G269" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H269" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I269" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J269" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K269" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L269" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N269" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="2">
+        <v>45198.981009490744</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="C270" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D270" s="1">
+        <v>20194132</v>
+      </c>
+      <c r="E270" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="F270" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H270" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I270" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J270" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K270" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L270" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M270" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="2">
+        <v>45199.00204162037</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>647</v>
+      </c>
+      <c r="C271" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="D271" s="1">
+        <v>20181088</v>
+      </c>
+      <c r="E271" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F271" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H271" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I271" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J271" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K271" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L271" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M271" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="2">
+        <v>45199.002838958331</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C272" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D272" s="1">
+        <v>20232829</v>
+      </c>
+      <c r="E272" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F272" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G272" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H272" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I272" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J272" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K272" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L272" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N272" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="2">
+        <v>45199.021899212967</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C273" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D273" s="1">
+        <v>20201217</v>
+      </c>
+      <c r="E273" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="F273" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G273" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H273" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I273" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J273" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K273" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L273" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M273" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A274" s="2">
+        <v>45199.023177569441</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D274" s="1">
+        <v>20191530</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G274" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H274" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I274" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J274" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K274" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L274" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M274" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A275" s="2">
+        <v>45199.029473101851</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D275" s="1">
+        <v>20201601</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G275" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H275" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I275" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J275" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K275" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L275" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N275" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A276" s="2">
+        <v>45199.034609849536</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D276" s="1">
+        <v>20221626</v>
+      </c>
+      <c r="E276" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F276" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G276" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H276" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I276" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J276" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K276" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L276" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N276" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A277" s="2">
+        <v>45199.059229699073</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="C277" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D277" s="1">
+        <v>20232753</v>
+      </c>
+      <c r="E277" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="F277" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G277" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H277" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I277" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J277" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K277" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L277" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N277" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="2">
+        <v>45199.062252638891</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="C278" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D278" s="1">
+        <v>20232707</v>
+      </c>
+      <c r="E278" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F278" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G278" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H278" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I278" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J278" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K278" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L278" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M278" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A279" s="2">
+        <v>45199.080388171293</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D279" s="1">
+        <v>20236639</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G279" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H279" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I279" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J279" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K279" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L279" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M279" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A280" s="2">
+        <v>45199.086617384259</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C280" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D280" s="1">
+        <v>20233029</v>
+      </c>
+      <c r="E280" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="F280" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G280" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H280" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I280" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J280" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K280" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L280" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N280" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A281" s="2">
+        <v>45199.088574803245</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D281" s="1">
+        <v>20236604</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I281" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K281" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L281" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M281" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A282" s="2">
+        <v>45199.090268877313</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C282" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D282" s="1">
+        <v>20236617</v>
+      </c>
+      <c r="E282" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="F282" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H282" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I282" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K282" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L282" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N282" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A283" s="2">
+        <v>45199.095433055554</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D283" s="1">
+        <v>20233426</v>
+      </c>
+      <c r="E283" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="F283" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H283" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I283" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J283" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K283" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L283" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M283" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A284" s="2">
+        <v>45199.132813645832</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D284" s="1">
+        <v>20236636</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H284" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I284" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J284" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K284" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L284" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M284" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A285" s="2">
+        <v>45199.140175601853</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D285" s="1">
+        <v>20232969</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>677</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H285" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I285" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K285" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L285" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M285" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A286" s="2">
+        <v>45199.218347256945</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="D286" s="1">
+        <v>20223806</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H286" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I286" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K286" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L286" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N286" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A287" s="2">
+        <v>45199.42335730324</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D287" s="1">
+        <v>20235119</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I287" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J287" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K287" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L287" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N287" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A288" s="2">
+        <v>45199.437920324075</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D288" s="1">
+        <v>20236219</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H288" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I288" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J288" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K288" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L288" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M288" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A289" s="2">
+        <v>45199.458602870371</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D289" s="1">
+        <v>20232967</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H289" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I289" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K289" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L289" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M289" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="2">
+        <v>45199.459633923616</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="D290" s="1">
+        <v>20215173</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H290" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I290" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J290" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K290" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L290" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N290" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A291" s="2">
+        <v>45199.487109513888</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D291" s="1">
+        <v>20233606</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H291" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I291" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J291" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K291" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L291" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N291" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A292" s="2">
+        <v>45199.494584085653</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D292" s="1">
+        <v>20235199</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H292" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I292" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K292" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L292" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M292" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="2">
+        <v>45199.507731423611</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D293" s="1">
+        <v>20226423</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H293" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I293" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K293" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L293" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N293" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="2">
+        <v>45199.551281099542</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D294" s="1">
+        <v>20222616</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H294" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I294" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J294" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K294" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L294" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M294" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="2">
+        <v>45199.571449629628</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="D295" s="1">
+        <v>20201090</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H295" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I295" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J295" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K295" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L295" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N295" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A296" s="2">
+        <v>45199.572447071754</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D296" s="1">
+        <v>20235215</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I296" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J296" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K296" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L296" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M296" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="2">
+        <v>45199.596079965282</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="D297" s="1">
+        <v>20232532</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I297" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J297" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K297" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L297" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M297" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A298" s="2">
+        <v>45199.612341678236</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D298" s="1">
+        <v>20231511</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H298" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I298" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K298" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L298" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M298" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A299" s="2">
+        <v>45199.62107381945</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D299" s="1">
+        <v>20231002</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>706</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G299" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H299" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I299" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J299" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K299" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L299" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N299" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="2">
+        <v>45199.641294942128</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="D300" s="1">
+        <v>20211061</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H300" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I300" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J300" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K300" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L300" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N300" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="2">
+        <v>45199.643950497688</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>710</v>
+      </c>
+      <c r="D301" s="1">
+        <v>20203346</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I301" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J301" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K301" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L301" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M301" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="2">
+        <v>45199.658270046297</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>712</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D302" s="1">
+        <v>20236781</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>713</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I302" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K302" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="L302" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N302" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A303" s="2">
+        <v>45199.659547569448</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D303" s="1">
+        <v>20232616</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>715</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I303" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J303" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K303" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L303" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N303" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A304" s="2">
+        <v>45199.662344988421</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D304" s="1">
+        <v>20231610</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I304" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J304" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K304" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L304" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M304" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A305" s="2">
+        <v>45199.695687743057</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D305" s="1">
+        <v>20217159</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>719</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I305" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K305" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L305" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N305" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A306" s="2">
+        <v>45199.708163379633</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D306" s="1">
+        <v>20236217</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>721</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I306" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J306" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K306" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L306" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N306" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A307" s="2">
+        <v>45199.711763113424</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>722</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D307" s="1">
+        <v>20232350</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I307" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J307" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K307" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L307" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M307" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A308" s="2">
+        <v>45199.719334085647</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>724</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D308" s="1">
+        <v>20236759</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I308" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J308" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K308" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L308" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M308" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A309" s="2">
+        <v>45199.725609756948</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="D309" s="1">
+        <v>20202216</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H309" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I309" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K309" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L309" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M309" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A310" s="2">
+        <v>45199.731701168981</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D310" s="1">
+        <v>20221631</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H310" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I310" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="J310" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K310" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L310" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M310" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A311" s="2">
+        <v>45199.740813611112</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="D311" s="1">
+        <v>20232609</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I311" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K311" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L311" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N311" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
